--- a/biology/Botanique/Pseuderanthemum/Pseuderanthemum.xlsx
+++ b/biology/Botanique/Pseuderanthemum/Pseuderanthemum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pseuderanthemum est un genre de plantes de la famille des Acanthaceae.
 Il regroupe 176 espèces des régions tropicales et tempérées de l'Ancien et du Nouveau Monde.
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                  (10 janvier 2018)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                  (10 janvier 2018) :
 Pseuderanthemum acuminatissimum (Miq.) Benoist
 Pseuderanthemum alatum (Nees) Radlkofer
 Pseuderanthemum album (Roxb.) Merrill
@@ -668,9 +682,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon "The Plant List"[4] 16 septembre 2012
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon "The Plant List" 16 septembre 2012
 Pseuderanthemum adenocalix Lindau = Pseuderanthemum verapazense Donn. Sm. , (1909)
 Pseuderanthemum adenocarpum (S.F. Blake) S.F. Blake = Pseuderanthemum verapazense Donn. Sm. , (1909)
 Pseuderanthemum atropurpureum (W.Bull) Radlk. = Pseuderanthemum carruthersii (Seem.) Guillaumin , (1948)
@@ -717,9 +733,11 @@
           <t>Espèces aux statuts non encore décidés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon "The Plant List"[4] 16 septembre 2012
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon "The Plant List" 16 septembre 2012
 Pseuderanthemum acuminatissimum (Miq.) Benoist
 Pseuderanthemum acuminatissimum (Miq.) Radlk.
 Pseuderanthemum acuminatum Radlk.
